--- a/notes/ELF-II/AVI ELF II Final BOM.xlsx
+++ b/notes/ELF-II/AVI ELF II Final BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/ELF-II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDEAB89-6033-4E4D-98C7-4F0070230B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5D962-AEBE-0243-B825-C5A16D30C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="4360" windowWidth="42520" windowHeight="22300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17120" yWindow="500" windowWidth="42520" windowHeight="22300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DigiKey.ca" sheetId="2" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>RN2, RN4</t>
   </si>
   <si>
-    <t>RN5, RN6</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -1079,6 +1076,9 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Amphenol-FCI/68691-440HLF?qs=cPwqfQhQFYMYN3UF9G02MQ%3D%3D</t>
+  </si>
+  <si>
+    <t>RN5, RN6 *Used with onboard 7-segment LED Display option</t>
   </si>
 </sst>
 </file>
@@ -2075,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73621EF0-655F-1847-9866-D65DA107FDFD}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2092,27 +2092,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2127,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -2150,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2167,10 +2167,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2184,10 +2184,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2201,10 +2201,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -2221,10 +2221,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2232,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -2258,10 +2258,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2275,10 +2275,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -2295,10 +2295,10 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2312,10 +2312,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -2332,10 +2332,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2349,10 +2349,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2395,10 +2395,10 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2412,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2429,10 +2429,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2440,19 +2440,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2460,19 +2460,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2480,16 +2480,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2497,16 +2497,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2534,10 +2534,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2545,16 +2545,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,21 +2562,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2594,10 +2594,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2611,10 +2611,10 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2628,10 +2628,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2645,10 +2645,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2662,10 +2662,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2679,10 +2679,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2696,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2713,15 +2713,15 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2735,10 +2735,10 @@
         <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2752,10 +2752,10 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2769,10 +2769,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2786,10 +2786,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2803,10 +2803,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2814,16 +2814,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2831,19 +2831,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2857,10 +2857,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2891,32 +2891,32 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
+      <c r="B53" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C53" s="1">
         <v>120</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2927,17 +2927,17 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2945,17 +2945,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2963,17 +2963,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2981,17 +2981,17 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2999,16 +2999,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>126</v>
       </c>
-      <c r="D60" t="s">
-        <v>127</v>
-      </c>
       <c r="E60" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="4"/>
     </row>
@@ -3023,11 +3023,11 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3052,14 +3052,14 @@
         <v>44</v>
       </c>
       <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3070,13 +3070,13 @@
         <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3084,17 +3084,17 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3102,17 +3102,17 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3120,16 +3120,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3137,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D69" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3154,16 +3154,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3171,21 +3171,21 @@
         <v>5</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="D71" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3197,18 +3197,18 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="F74" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3220,10 +3220,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3299,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A04FA5-F073-FD48-97C7-69F53090A511}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3314,27 +3314,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="21"/>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>8</v>
@@ -3373,11 +3373,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3391,11 +3391,11 @@
         <v>4016</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3409,11 +3409,11 @@
         <v>4023</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3427,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>8</v>
@@ -3447,11 +3447,11 @@
         <v>4050</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3459,16 +3459,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>8</v>
@@ -3485,11 +3485,11 @@
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3503,10 +3503,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>8</v>
@@ -3523,11 +3523,11 @@
         <v>4049</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3541,10 +3541,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>8</v>
@@ -3561,11 +3561,11 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3579,11 +3579,11 @@
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3597,11 +3597,11 @@
         <v>4013</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3633,11 +3633,11 @@
         <v>37</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3651,11 +3651,11 @@
         <v>39</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3669,11 +3669,11 @@
         <v>41</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,19 +3681,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3701,19 +3701,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="E23" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3721,17 +3721,17 @@
         <v>1</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="12">
         <v>3.58</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3739,17 +3739,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,7 +3762,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
@@ -3781,11 +3781,11 @@
         <v>46</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,16 +3793,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="12"/>
     </row>
@@ -3811,16 +3811,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="F30" s="12"/>
     </row>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -3853,11 +3853,11 @@
         <v>10</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3871,11 +3871,11 @@
         <v>1000</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3889,11 +3889,11 @@
         <v>26</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3907,11 +3907,11 @@
         <v>28</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3925,11 +3925,11 @@
         <v>10</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3943,11 +3943,11 @@
         <v>31</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3961,11 +3961,11 @@
         <v>1</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3979,11 +3979,11 @@
         <v>34</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3996,7 +3996,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="12"/>
@@ -4015,11 +4015,11 @@
         <v>330</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4033,11 +4033,11 @@
         <v>49</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4051,11 +4051,11 @@
         <v>51</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,11 +4069,11 @@
         <v>200</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4087,11 +4087,11 @@
         <v>54</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4099,17 +4099,17 @@
         <v>3</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4117,19 +4117,19 @@
         <v>1</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4143,11 +4143,11 @@
         <v>49</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4161,11 +4161,11 @@
         <v>59</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,29 +4179,29 @@
         <v>59</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>2</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>61</v>
+      <c r="B53" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C53" s="12">
         <v>120</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -4227,17 +4227,17 @@
         <v>1</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4245,17 +4245,17 @@
         <v>1</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4263,17 +4263,17 @@
         <v>1</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4281,17 +4281,17 @@
         <v>1</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4299,16 +4299,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="D60" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>127</v>
-      </c>
       <c r="E60" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="25"/>
     </row>
@@ -4323,11 +4323,11 @@
         <v>42</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -4356,14 +4356,14 @@
         <v>44</v>
       </c>
       <c r="C64" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4374,14 +4374,14 @@
         <v>35</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,17 +4389,17 @@
         <v>1</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4407,17 +4407,17 @@
         <v>1</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4425,17 +4425,17 @@
         <v>5</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4443,17 +4443,17 @@
         <v>5</v>
       </c>
       <c r="B69" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="D69" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4461,17 +4461,17 @@
         <v>4</v>
       </c>
       <c r="B70" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4479,17 +4479,17 @@
         <v>5</v>
       </c>
       <c r="B71" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>200</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4502,7 +4502,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -4515,15 +4515,15 @@
         <v>8</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,7 +4536,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -4549,11 +4549,11 @@
         <v>2</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -4569,7 +4569,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -4638,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC75F21-A609-2048-BDDD-710CC6135C01}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4655,27 +4655,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4690,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -4713,10 +4713,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4730,10 +4730,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4747,10 +4747,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4764,10 +4764,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -4784,10 +4784,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,16 +4795,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -4821,10 +4821,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4838,10 +4838,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4858,10 +4858,10 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,10 +4875,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -4895,10 +4895,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4912,10 +4912,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4929,15 +4929,15 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4955,10 +4955,10 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4972,10 +4972,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4989,10 +4989,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,19 +5000,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5020,19 +5020,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5057,16 +5057,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5093,10 +5093,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,21 +5121,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5153,10 +5153,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -5170,10 +5170,10 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -5187,10 +5187,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,10 +5204,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5221,10 +5221,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,10 +5238,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -5255,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,15 +5272,15 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -5294,10 +5294,10 @@
         <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -5311,10 +5311,10 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,10 +5328,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -5345,10 +5345,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -5362,10 +5362,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5373,16 +5373,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5390,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5416,10 +5416,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5433,10 +5433,10 @@
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5450,32 +5450,32 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
+      <c r="B53" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C53" s="1">
         <v>120</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5485,17 +5485,17 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,17 +5503,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5521,17 +5521,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5539,13 +5539,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -5555,16 +5555,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>126</v>
       </c>
-      <c r="D60" t="s">
-        <v>127</v>
-      </c>
       <c r="E60" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60"/>
     </row>
@@ -5579,11 +5579,11 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5594,7 +5594,7 @@
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5607,14 +5607,14 @@
         <v>44</v>
       </c>
       <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5625,13 +5625,13 @@
         <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5639,17 +5639,17 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5657,17 +5657,17 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5675,16 +5675,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D68" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5692,16 +5692,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5709,21 +5709,21 @@
         <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5735,18 +5735,18 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="F73" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5758,10 +5758,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>22</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5836,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FDEFEA-849D-5B4C-9A76-0C1C74BD1400}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5853,27 +5853,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5888,13 +5888,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -5911,10 +5911,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5928,10 +5928,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5945,10 +5945,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,10 +5962,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -5982,10 +5982,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5993,16 +5993,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -6019,10 +6019,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6036,10 +6036,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -6056,10 +6056,10 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6073,10 +6073,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -6093,10 +6093,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6110,10 +6110,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6127,15 +6127,15 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6153,10 +6153,10 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6170,10 +6170,10 @@
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6187,10 +6187,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6198,19 +6198,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6218,19 +6218,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6238,16 +6238,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6255,16 +6255,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6291,10 +6291,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6302,16 +6302,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6319,21 +6319,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6351,10 +6351,10 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6368,10 +6368,10 @@
         <v>1000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6385,10 +6385,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6402,10 +6402,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6419,10 +6419,10 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6436,10 +6436,10 @@
         <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6453,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6470,15 +6470,15 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6492,10 +6492,10 @@
         <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6509,10 +6509,10 @@
         <v>49</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6526,10 +6526,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6543,10 +6543,10 @@
         <v>200</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6560,10 +6560,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6571,16 +6571,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6588,19 +6588,19 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6614,10 +6614,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6631,10 +6631,10 @@
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6648,32 +6648,32 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
+      <c r="B53" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="C53" s="1">
         <v>120</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6683,17 +6683,17 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E56"/>
       <c r="F56" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -6701,17 +6701,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6719,17 +6719,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6737,13 +6737,13 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -6753,16 +6753,16 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>126</v>
       </c>
-      <c r="D60" t="s">
-        <v>127</v>
-      </c>
       <c r="E60" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60"/>
     </row>
@@ -6777,11 +6777,11 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6805,14 +6805,14 @@
         <v>44</v>
       </c>
       <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -6823,13 +6823,13 @@
         <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -6837,17 +6837,17 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6855,17 +6855,17 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6873,16 +6873,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D68" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -6890,16 +6890,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6907,21 +6907,21 @@
         <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -6933,18 +6933,18 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="F73" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -6956,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -6973,7 +6973,7 @@
         <v>22</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/notes/ELF-II/AVI ELF II Final BOM.xlsx
+++ b/notes/ELF-II/AVI ELF II Final BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/ELF-II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5D962-AEBE-0243-B825-C5A16D30C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC7DEE-7BA0-594F-96A5-1BED7A3A0BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17120" yWindow="500" windowWidth="42520" windowHeight="22300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="600" windowWidth="42520" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DigiKey.ca" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="365">
   <si>
     <t>A1</t>
   </si>
@@ -61,9 +61,6 @@
     <t>A10</t>
   </si>
   <si>
-    <t>MM74C923</t>
-  </si>
-  <si>
     <t>A13, A18</t>
   </si>
   <si>
@@ -94,42 +91,24 @@
     <t>BATT</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>C3, C4, C5, C6, C9, C11</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
-    <t>18p</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>330p</t>
-  </si>
-  <si>
     <t>C12</t>
   </si>
   <si>
     <t>C13</t>
   </si>
   <si>
-    <t>150n</t>
-  </si>
-  <si>
     <t>CN1</t>
   </si>
   <si>
@@ -301,9 +280,6 @@
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/CD74HC173E/1506733</t>
   </si>
   <si>
-    <t>20 Key Keyboard Encoder DIP-20</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/CD4049UBE/67301</t>
   </si>
   <si>
@@ -742,9 +718,6 @@
     <t>10uf Electrolytic Radial Capacitor</t>
   </si>
   <si>
-    <t>Jameco Electronics: https://www.jameco.com/z/74C923-Major-Brands-20-Key-Keyboard-Encoder-DIP-20_44572.html</t>
-  </si>
-  <si>
     <t>Jameco Electronics: https://www.jameco.com/z/HM62256LP-70-HITACHI-IC-62256LP-CMOS-SRAM-256K-Bit-32Kx8-70ns-Low-Power_82472.html</t>
   </si>
   <si>
@@ -1079,6 +1052,72 @@
   </si>
   <si>
     <t>RN5, RN6 *Used with onboard 7-segment LED Display option</t>
+  </si>
+  <si>
+    <t>C1, C16, C17, C18, C19</t>
+  </si>
+  <si>
+    <t>C3, C4, C5, C6, C11, C14, C15, C20, C21</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>0.1uf Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>10nf</t>
+  </si>
+  <si>
+    <t>18pf</t>
+  </si>
+  <si>
+    <t>150nf</t>
+  </si>
+  <si>
+    <t>10nf Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>330pf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Vishay-BC-Components/K103K10X7RF5UL2?qs=8fb2TFeI5qF81ybioAo4oA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-BC-Components/K103K10X7RF5UL2?qs=8fb2TFeI5qF81ybioAo4oA%3D%3D</t>
+  </si>
+  <si>
+    <t>10uf Electrolytic</t>
+  </si>
+  <si>
+    <t>1000uf Electrolytic</t>
+  </si>
+  <si>
+    <t>1uf Electrolytic</t>
+  </si>
+  <si>
+    <t>MM74C922</t>
+  </si>
+  <si>
+    <t>16-20 Key Encoder DIP 18-pin</t>
+  </si>
+  <si>
+    <t>Jameco Electronics: https://www.jameco.com/z/74C922-Major-Brands-IC-74C922-16-20-Key-Encoder-DIP-18-pin_44564.html</t>
+  </si>
+  <si>
+    <t>74HC00</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C320C103K3G5TA/6656406</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/kemet/C320C103K3G5TA/6656406</t>
+  </si>
+  <si>
+    <t>1000uf Electroytic</t>
   </si>
 </sst>
 </file>
@@ -2073,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73621EF0-655F-1847-9866-D65DA107FDFD}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2092,27 +2131,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2127,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -2150,10 +2189,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2167,10 +2206,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2184,10 +2223,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2201,10 +2240,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -2221,10 +2260,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2232,16 +2271,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -2258,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2272,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>239</v>
+        <v>359</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -2289,16 +2328,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2306,16 +2345,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -2326,16 +2365,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2343,16 +2382,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2360,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2377,7 +2416,7 @@
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2389,16 +2428,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2406,16 +2445,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2423,16 +2462,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2440,19 +2479,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2460,19 +2499,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2480,16 +2519,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2497,16 +2536,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2516,7 +2555,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2528,16 +2567,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2545,16 +2584,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,21 +2601,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2585,19 +2624,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
+        <v>343</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2605,33 +2644,33 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1000</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2639,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2656,33 +2695,34 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>31</v>
+      <c r="A38" s="12">
+        <v>1</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>142</v>
+        <v>350</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2690,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2707,140 +2747,137 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1">
-        <v>330</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>170</v>
+      <c r="A43" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="4" t="s">
         <v>157</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1">
-        <v>200</v>
-      </c>
-      <c r="D46" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>200</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>158</v>
@@ -2851,33 +2888,36 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,77 +2925,76 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="1">
         <v>120</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="D54" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2963,17 +3002,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2981,102 +3020,103 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="D62"/>
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
       <c r="E62"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="B65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65"/>
       <c r="F65" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3084,17 +3124,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66"/>
+        <v>62</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F66" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3102,34 +3141,35 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>5</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>205</v>
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>204</v>
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3137,107 +3177,124 @@
         <v>5</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>5</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>4</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>4</v>
-      </c>
-      <c r="B70" s="16" t="s">
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>5</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>210</v>
+      <c r="D79" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3257,39 +3314,39 @@
     <hyperlink ref="F20" r:id="rId13" xr:uid="{B72FDB02-B0A5-2145-A70D-2B63A9176B6A}"/>
     <hyperlink ref="F34" r:id="rId14" xr:uid="{1F7C8EF3-91E1-624D-A8B1-8B7E9486F708}"/>
     <hyperlink ref="F35" r:id="rId15" xr:uid="{732EF190-7C71-C846-9DCE-5AE8208E70A0}"/>
-    <hyperlink ref="F59" r:id="rId16" xr:uid="{00BEB6A0-A8B2-5641-97C2-D4F23886C3AF}"/>
-    <hyperlink ref="F56" r:id="rId17" xr:uid="{3831C7EE-C6D8-684F-815A-EC621980454F}"/>
-    <hyperlink ref="F58" r:id="rId18" xr:uid="{EAECB9BA-D3A4-9247-8B91-90C47D9DCF07}"/>
-    <hyperlink ref="F57" r:id="rId19" xr:uid="{359B401E-D0D7-E548-A295-C270A0A56560}"/>
-    <hyperlink ref="F61" r:id="rId20" xr:uid="{2C6D5F93-3E69-0F47-B09E-26C3EC0267A1}"/>
-    <hyperlink ref="F65" r:id="rId21" xr:uid="{CD6619E6-94F6-0841-BCE5-A44AD33542B4}"/>
-    <hyperlink ref="F64" r:id="rId22" xr:uid="{EF3648DF-B388-C743-BE1E-F9B0E51DBE77}"/>
+    <hyperlink ref="F60" r:id="rId16" xr:uid="{00BEB6A0-A8B2-5641-97C2-D4F23886C3AF}"/>
+    <hyperlink ref="F57" r:id="rId17" xr:uid="{3831C7EE-C6D8-684F-815A-EC621980454F}"/>
+    <hyperlink ref="F59" r:id="rId18" xr:uid="{EAECB9BA-D3A4-9247-8B91-90C47D9DCF07}"/>
+    <hyperlink ref="F58" r:id="rId19" xr:uid="{359B401E-D0D7-E548-A295-C270A0A56560}"/>
+    <hyperlink ref="F62" r:id="rId20" xr:uid="{2C6D5F93-3E69-0F47-B09E-26C3EC0267A1}"/>
+    <hyperlink ref="F66" r:id="rId21" xr:uid="{CD6619E6-94F6-0841-BCE5-A44AD33542B4}"/>
+    <hyperlink ref="F65" r:id="rId22" xr:uid="{EF3648DF-B388-C743-BE1E-F9B0E51DBE77}"/>
     <hyperlink ref="F25" r:id="rId23" xr:uid="{BE1A1F0B-4E1A-C748-A0BD-C4D91DAE5918}"/>
     <hyperlink ref="F37" r:id="rId24" xr:uid="{73C30BEC-279F-8645-AE1B-3E875924AFCF}"/>
-    <hyperlink ref="F38" r:id="rId25" xr:uid="{13F52EDC-278B-6B41-A8C9-A318C51E974B}"/>
-    <hyperlink ref="F39" r:id="rId26" xr:uid="{0E80B445-BD61-094E-9983-FE7B44C6AE72}"/>
-    <hyperlink ref="F40" r:id="rId27" xr:uid="{ACFC7EAC-78E9-A54D-B34E-B5489AC8AAE0}"/>
+    <hyperlink ref="F39" r:id="rId25" xr:uid="{13F52EDC-278B-6B41-A8C9-A318C51E974B}"/>
+    <hyperlink ref="F40" r:id="rId26" xr:uid="{0E80B445-BD61-094E-9983-FE7B44C6AE72}"/>
+    <hyperlink ref="F41" r:id="rId27" xr:uid="{ACFC7EAC-78E9-A54D-B34E-B5489AC8AAE0}"/>
     <hyperlink ref="F36" r:id="rId28" xr:uid="{F8D8EEE8-E6F3-8947-BFA6-C41D97C9FB5C}"/>
-    <hyperlink ref="F51" r:id="rId29" xr:uid="{CC5DED62-7CDF-AF4B-A01B-8C16288CC664}"/>
-    <hyperlink ref="F52" r:id="rId30" xr:uid="{A4E3B9C6-7897-C645-A461-B68FE1666A43}"/>
-    <hyperlink ref="F53" r:id="rId31" xr:uid="{5A05D02E-DCF3-D84F-B6A5-4AE46B0F2FD1}"/>
-    <hyperlink ref="F50" r:id="rId32" xr:uid="{5297C3CF-BA15-E149-BA8F-6AF8B3A43621}"/>
-    <hyperlink ref="F49" r:id="rId33" xr:uid="{6C0D1ABD-99E9-DB4E-B44C-03E73BA15F84}"/>
-    <hyperlink ref="F44" r:id="rId34" xr:uid="{A0FD3493-943C-1140-BDB9-6CEC85034DE0}"/>
-    <hyperlink ref="F48" r:id="rId35" xr:uid="{4740A108-F5C8-CC4F-BF17-C67C838B777B}"/>
-    <hyperlink ref="F47" r:id="rId36" xr:uid="{DC135310-96D7-EA4A-8DD8-8A61F2907A9C}"/>
-    <hyperlink ref="F46" r:id="rId37" xr:uid="{6F130354-B267-B04B-AAB0-28960353593A}"/>
-    <hyperlink ref="F45" r:id="rId38" xr:uid="{17B6C829-BE23-3D46-8A6D-CDD25EAAEE77}"/>
-    <hyperlink ref="F43" r:id="rId39" xr:uid="{BC4D20A6-8782-314B-A922-CCA391A04385}"/>
+    <hyperlink ref="F52" r:id="rId29" xr:uid="{CC5DED62-7CDF-AF4B-A01B-8C16288CC664}"/>
+    <hyperlink ref="F53" r:id="rId30" xr:uid="{A4E3B9C6-7897-C645-A461-B68FE1666A43}"/>
+    <hyperlink ref="F54" r:id="rId31" xr:uid="{5A05D02E-DCF3-D84F-B6A5-4AE46B0F2FD1}"/>
+    <hyperlink ref="F51" r:id="rId32" xr:uid="{5297C3CF-BA15-E149-BA8F-6AF8B3A43621}"/>
+    <hyperlink ref="F50" r:id="rId33" xr:uid="{6C0D1ABD-99E9-DB4E-B44C-03E73BA15F84}"/>
+    <hyperlink ref="F45" r:id="rId34" xr:uid="{A0FD3493-943C-1140-BDB9-6CEC85034DE0}"/>
+    <hyperlink ref="F49" r:id="rId35" xr:uid="{4740A108-F5C8-CC4F-BF17-C67C838B777B}"/>
+    <hyperlink ref="F48" r:id="rId36" xr:uid="{DC135310-96D7-EA4A-8DD8-8A61F2907A9C}"/>
+    <hyperlink ref="F47" r:id="rId37" xr:uid="{6F130354-B267-B04B-AAB0-28960353593A}"/>
+    <hyperlink ref="F46" r:id="rId38" xr:uid="{17B6C829-BE23-3D46-8A6D-CDD25EAAEE77}"/>
+    <hyperlink ref="F44" r:id="rId39" xr:uid="{BC4D20A6-8782-314B-A922-CCA391A04385}"/>
     <hyperlink ref="F24" r:id="rId40" xr:uid="{1EF516E1-F3A9-E541-B8AE-54E329D1D1F4}"/>
     <hyperlink ref="F28" r:id="rId41" xr:uid="{A7DA2557-0EC9-F84A-A054-FE790728EA11}"/>
-    <hyperlink ref="F70" r:id="rId42" xr:uid="{F90D7835-495D-4D44-B8B3-105ED258CA6F}"/>
-    <hyperlink ref="F71" r:id="rId43" xr:uid="{D3A381FB-A448-1141-963C-9A0E3286AE47}"/>
-    <hyperlink ref="F68" r:id="rId44" xr:uid="{696913A6-B67F-9F4F-8E63-122EC832D06A}"/>
-    <hyperlink ref="F74" r:id="rId45" xr:uid="{5621087D-3130-A045-AA82-9287518AF8CA}"/>
-    <hyperlink ref="E60" r:id="rId46" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{BF6675E3-FD3D-9146-BA0A-B753B4847DF7}"/>
-    <hyperlink ref="E11" r:id="rId47" xr:uid="{C380B678-A63B-104C-B5BD-BFE84E01A60E}"/>
-    <hyperlink ref="E3" r:id="rId48" xr:uid="{2241EE76-E036-5945-97DE-2381DEE9B631}"/>
+    <hyperlink ref="F71" r:id="rId42" xr:uid="{F90D7835-495D-4D44-B8B3-105ED258CA6F}"/>
+    <hyperlink ref="F72" r:id="rId43" xr:uid="{D3A381FB-A448-1141-963C-9A0E3286AE47}"/>
+    <hyperlink ref="F69" r:id="rId44" xr:uid="{696913A6-B67F-9F4F-8E63-122EC832D06A}"/>
+    <hyperlink ref="F75" r:id="rId45" xr:uid="{5621087D-3130-A045-AA82-9287518AF8CA}"/>
+    <hyperlink ref="E61" r:id="rId46" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{BF6675E3-FD3D-9146-BA0A-B753B4847DF7}"/>
+    <hyperlink ref="E3" r:id="rId47" xr:uid="{2241EE76-E036-5945-97DE-2381DEE9B631}"/>
+    <hyperlink ref="F38" r:id="rId48" xr:uid="{4B417750-D155-7640-8F95-46E21700ACCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3297,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A04FA5-F073-FD48-97C7-69F53090A511}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3314,27 +3371,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="21"/>
@@ -3350,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>8</v>
@@ -3373,11 +3430,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3391,11 +3448,11 @@
         <v>4016</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3409,11 +3466,11 @@
         <v>4023</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3427,10 +3484,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>8</v>
@@ -3447,11 +3504,11 @@
         <v>4050</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3459,16 +3516,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>8</v>
@@ -3485,30 +3542,30 @@
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="5" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3517,17 +3574,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="12">
         <v>4049</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3535,16 +3592,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>8</v>
@@ -3555,17 +3612,17 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3573,17 +3630,17 @@
         <v>1</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,17 +3648,17 @@
         <v>1</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12">
         <v>4013</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3614,7 +3671,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3627,17 +3684,17 @@
         <v>12</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3645,17 +3702,17 @@
         <v>1</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3663,17 +3720,17 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,19 +3738,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>179</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3701,19 +3758,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3721,17 +3778,17 @@
         <v>1</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12">
         <v>3.58</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3739,17 +3796,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3762,7 +3819,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
@@ -3775,17 +3832,17 @@
         <v>2</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3793,16 +3850,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F29" s="12"/>
     </row>
@@ -3811,16 +3868,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F30" s="12"/>
     </row>
@@ -3834,7 +3891,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -3844,20 +3901,20 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="12">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3865,35 +3922,35 @@
         <v>1</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1000</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
-        <v>6</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3901,17 +3958,17 @@
         <v>1</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3919,17 +3976,17 @@
         <v>1</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="12">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3937,17 +3994,17 @@
         <v>1</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>149</v>
+        <v>347</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="4" t="s">
-        <v>283</v>
+      <c r="F38" s="5" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3955,17 +4012,17 @@
         <v>1</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="12">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3973,31 +4030,39 @@
         <v>1</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="12">
+        <v>1</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="4" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="A42" s="12"/>
       <c r="B42" s="23"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -4005,131 +4070,121 @@
       <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>2</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="12">
-        <v>330</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="A43" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="5" t="s">
-        <v>286</v>
-      </c>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="12">
+        <v>330</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="4" t="s">
-        <v>287</v>
+      <c r="F44" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="12">
-        <v>200</v>
+        <v>43</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="12">
+        <v>200</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>218</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E49" s="12"/>
       <c r="F49" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4137,35 +4192,37 @@
         <v>1</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>210</v>
+      </c>
       <c r="F50" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4173,89 +4230,89 @@
         <v>2</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>2</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>2</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="12">
         <v>120</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="29"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
-        <v>1</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="A56" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>1</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4263,17 +4320,17 @@
         <v>1</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4281,107 +4338,107 @@
         <v>1</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
-        <v>17</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="4" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
-        <v>1</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="4" t="s">
-        <v>298</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="12">
+        <v>1</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="E62" s="23"/>
-      <c r="F62" s="25"/>
+      <c r="F62" s="4" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="29"/>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
-        <v>1</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>1</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="12"/>
+      <c r="B65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="23"/>
       <c r="F65" s="4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,17 +4446,17 @@
         <v>1</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="12"/>
       <c r="F66" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4407,35 +4464,35 @@
         <v>1</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
-        <v>5</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>205</v>
+        <v>1</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="5" t="s">
-        <v>302</v>
+        <v>63</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="23"/>
+      <c r="F68" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4443,136 +4500,154 @@
         <v>5</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="12">
+        <v>5</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="F72" s="5" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="12">
+      <c r="A74" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
         <v>8</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="23"/>
+      <c r="B75" s="23" t="s">
+        <v>205</v>
+      </c>
       <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="D75" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="F75" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="12">
-        <v>2</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>210</v>
+        <v>111</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>1</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4582,53 +4657,53 @@
     <hyperlink ref="F6" r:id="rId4" xr:uid="{63572AB1-5AE9-824D-83A2-762FB53EAB84}"/>
     <hyperlink ref="F8" r:id="rId5" xr:uid="{3DBFEF68-0DFE-CD4C-9719-36CA8B8DD22C}"/>
     <hyperlink ref="F10" r:id="rId6" xr:uid="{CFA576A3-7DE3-CA43-9434-2B4CF15CF61D}"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://www.jameco.com/z/74C923-Major-Brands-20-Key-Keyboard-Encoder-DIP-20_44572.html" xr:uid="{3748A5D2-A14A-8441-AD0D-D7EA986FCC22}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{31BE350E-7C5A-D647-AF72-A4C37BF0B444}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{1C51F977-DB2F-444B-AB26-B08B62996E1A}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{A47389D2-D680-6D47-A6DE-261760B48FD5}"/>
-    <hyperlink ref="F16" r:id="rId11" xr:uid="{0EA55AC5-B258-9644-B376-72A19268ADE0}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{26238E71-190E-5341-BA3E-4A63434BA8AA}"/>
-    <hyperlink ref="F20" r:id="rId13" xr:uid="{C7BA9CC4-ABA8-844F-94ED-D40622A1619C}"/>
-    <hyperlink ref="F21" r:id="rId14" xr:uid="{E7540032-E731-5243-9441-E92F95189296}"/>
-    <hyperlink ref="F24" r:id="rId15" xr:uid="{D42BAE41-95B2-3C40-8A56-42E73BE482F3}"/>
-    <hyperlink ref="F25" r:id="rId16" xr:uid="{CE7F6333-45DB-0840-9F89-559F58C51A60}"/>
-    <hyperlink ref="F28" r:id="rId17" xr:uid="{3796AD3D-ABC3-1043-A0A6-4D8FF775E8D4}"/>
-    <hyperlink ref="F33" r:id="rId18" xr:uid="{DB43DD14-5AB8-D74B-BE08-EDF6DFA619AC}"/>
-    <hyperlink ref="F34" r:id="rId19" xr:uid="{1A8E01EC-0618-7448-B40F-BF1A56A2F8D1}"/>
-    <hyperlink ref="F35" r:id="rId20" xr:uid="{3CF21534-7CEA-254F-9B61-8DCEFD31C57C}"/>
-    <hyperlink ref="F36" r:id="rId21" xr:uid="{7CF80AA4-A166-114F-8483-0000179C8953}"/>
-    <hyperlink ref="F37" r:id="rId22" xr:uid="{9DECEBA9-2E90-854B-BFFD-866C7655FB4C}"/>
-    <hyperlink ref="F38" r:id="rId23" xr:uid="{6B77C8E6-6DE4-2C44-AECE-25784E75B78E}"/>
-    <hyperlink ref="F39" r:id="rId24" xr:uid="{7EA8C681-0E68-4C4B-A5AE-9569ED9854C4}"/>
-    <hyperlink ref="F40" r:id="rId25" xr:uid="{1F9C052F-127E-944F-A036-F9739BD79DE4}"/>
-    <hyperlink ref="F43" r:id="rId26" xr:uid="{138E8AC5-0449-4A41-A562-42F7055B53E4}"/>
-    <hyperlink ref="F44" r:id="rId27" xr:uid="{A96E7578-6550-8742-8549-CE5E2584D8B8}"/>
-    <hyperlink ref="F45" r:id="rId28" xr:uid="{16575664-D92B-0E4C-8EE4-ABD0326ADB2E}"/>
-    <hyperlink ref="F46" r:id="rId29" xr:uid="{5D319424-4AA6-A143-9180-DB007A11C830}"/>
-    <hyperlink ref="F47" r:id="rId30" xr:uid="{D74AC43C-EA09-754A-922A-EBC442E7DC25}"/>
-    <hyperlink ref="F48" r:id="rId31" xr:uid="{229496A0-08C3-AA46-AB37-DCA14DD18140}"/>
-    <hyperlink ref="F49" r:id="rId32" xr:uid="{37FFCE13-2538-E04E-900E-4CD80415DA4A}"/>
-    <hyperlink ref="F50" r:id="rId33" xr:uid="{9D1AFB99-0519-4047-BF51-170D47520CAB}"/>
-    <hyperlink ref="F51" r:id="rId34" xr:uid="{D3E548EB-BF6A-FE41-86FD-2AEA348A7103}"/>
-    <hyperlink ref="F52" r:id="rId35" xr:uid="{AB209A43-B889-5B41-90C4-A5475893BACE}"/>
-    <hyperlink ref="F53" r:id="rId36" xr:uid="{DE5B2666-21E3-8840-9F3A-AA4C2C8871C6}"/>
-    <hyperlink ref="F56" r:id="rId37" xr:uid="{AB438D9C-E08F-4B49-8547-CEAA483508EB}"/>
-    <hyperlink ref="F57" r:id="rId38" xr:uid="{C8666E44-C7F4-7445-80C9-B099A55A189B}"/>
-    <hyperlink ref="F58" r:id="rId39" xr:uid="{3D1076C3-A1F8-3748-9149-619D22BB0D70}"/>
-    <hyperlink ref="F59" r:id="rId40" xr:uid="{066DA4F6-88E6-5142-A733-D3855E9D2D70}"/>
-    <hyperlink ref="E60" r:id="rId41" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{86294129-E301-4A42-8651-A160E417DD92}"/>
-    <hyperlink ref="F61" r:id="rId42" xr:uid="{15A7C228-6152-7A4C-89CF-9C72450ECE14}"/>
-    <hyperlink ref="F64" r:id="rId43" xr:uid="{5DA68367-F0A7-9F4E-B2D0-7C2DA91ECD62}"/>
-    <hyperlink ref="F65" r:id="rId44" xr:uid="{91519883-ACEB-8147-8A8B-F7488FB58506}"/>
-    <hyperlink ref="F68" r:id="rId45" xr:uid="{B249DF89-14B7-664B-A411-43D5C6EFBEC0}"/>
-    <hyperlink ref="F70" r:id="rId46" xr:uid="{2A598C9C-9558-EA44-BA0F-D6C448C3C9C1}"/>
-    <hyperlink ref="F71" r:id="rId47" xr:uid="{6A0F1011-EAAC-464A-9EB0-5D8A2EFD938F}"/>
-    <hyperlink ref="F74" r:id="rId48" xr:uid="{F4175634-F68C-2B49-BF93-072CA316F895}"/>
-    <hyperlink ref="F22" r:id="rId49" xr:uid="{8EC0326F-49B1-8E4A-9DD3-FDE0BCC2304D}"/>
-    <hyperlink ref="F23" r:id="rId50" xr:uid="{0D51728A-47C9-0C46-9F58-5E74F480DA3F}"/>
-    <hyperlink ref="F66" r:id="rId51" xr:uid="{CA2D0495-4CC9-5A4F-9067-C3D39A04ADE5}"/>
-    <hyperlink ref="F67" r:id="rId52" xr:uid="{A8E68396-B9B5-FD49-9020-610F107379E8}"/>
-    <hyperlink ref="F69" r:id="rId53" xr:uid="{38C0DA80-A396-204A-AF96-ECC8D9E60756}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{31BE350E-7C5A-D647-AF72-A4C37BF0B444}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{1C51F977-DB2F-444B-AB26-B08B62996E1A}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{A47389D2-D680-6D47-A6DE-261760B48FD5}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{0EA55AC5-B258-9644-B376-72A19268ADE0}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{26238E71-190E-5341-BA3E-4A63434BA8AA}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{C7BA9CC4-ABA8-844F-94ED-D40622A1619C}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{E7540032-E731-5243-9441-E92F95189296}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{D42BAE41-95B2-3C40-8A56-42E73BE482F3}"/>
+    <hyperlink ref="F25" r:id="rId15" xr:uid="{CE7F6333-45DB-0840-9F89-559F58C51A60}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{3796AD3D-ABC3-1043-A0A6-4D8FF775E8D4}"/>
+    <hyperlink ref="F33" r:id="rId17" xr:uid="{DB43DD14-5AB8-D74B-BE08-EDF6DFA619AC}"/>
+    <hyperlink ref="F34" r:id="rId18" xr:uid="{1A8E01EC-0618-7448-B40F-BF1A56A2F8D1}"/>
+    <hyperlink ref="F35" r:id="rId19" xr:uid="{3CF21534-7CEA-254F-9B61-8DCEFD31C57C}"/>
+    <hyperlink ref="F36" r:id="rId20" xr:uid="{7CF80AA4-A166-114F-8483-0000179C8953}"/>
+    <hyperlink ref="F37" r:id="rId21" xr:uid="{9DECEBA9-2E90-854B-BFFD-866C7655FB4C}"/>
+    <hyperlink ref="F39" r:id="rId22" xr:uid="{6B77C8E6-6DE4-2C44-AECE-25784E75B78E}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{7EA8C681-0E68-4C4B-A5AE-9569ED9854C4}"/>
+    <hyperlink ref="F41" r:id="rId24" xr:uid="{1F9C052F-127E-944F-A036-F9739BD79DE4}"/>
+    <hyperlink ref="F44" r:id="rId25" xr:uid="{138E8AC5-0449-4A41-A562-42F7055B53E4}"/>
+    <hyperlink ref="F45" r:id="rId26" xr:uid="{A96E7578-6550-8742-8549-CE5E2584D8B8}"/>
+    <hyperlink ref="F46" r:id="rId27" xr:uid="{16575664-D92B-0E4C-8EE4-ABD0326ADB2E}"/>
+    <hyperlink ref="F47" r:id="rId28" xr:uid="{5D319424-4AA6-A143-9180-DB007A11C830}"/>
+    <hyperlink ref="F48" r:id="rId29" xr:uid="{D74AC43C-EA09-754A-922A-EBC442E7DC25}"/>
+    <hyperlink ref="F49" r:id="rId30" xr:uid="{229496A0-08C3-AA46-AB37-DCA14DD18140}"/>
+    <hyperlink ref="F50" r:id="rId31" xr:uid="{37FFCE13-2538-E04E-900E-4CD80415DA4A}"/>
+    <hyperlink ref="F51" r:id="rId32" xr:uid="{9D1AFB99-0519-4047-BF51-170D47520CAB}"/>
+    <hyperlink ref="F52" r:id="rId33" xr:uid="{D3E548EB-BF6A-FE41-86FD-2AEA348A7103}"/>
+    <hyperlink ref="F53" r:id="rId34" xr:uid="{AB209A43-B889-5B41-90C4-A5475893BACE}"/>
+    <hyperlink ref="F54" r:id="rId35" xr:uid="{DE5B2666-21E3-8840-9F3A-AA4C2C8871C6}"/>
+    <hyperlink ref="F57" r:id="rId36" xr:uid="{AB438D9C-E08F-4B49-8547-CEAA483508EB}"/>
+    <hyperlink ref="F58" r:id="rId37" xr:uid="{C8666E44-C7F4-7445-80C9-B099A55A189B}"/>
+    <hyperlink ref="F59" r:id="rId38" xr:uid="{3D1076C3-A1F8-3748-9149-619D22BB0D70}"/>
+    <hyperlink ref="F60" r:id="rId39" xr:uid="{066DA4F6-88E6-5142-A733-D3855E9D2D70}"/>
+    <hyperlink ref="E61" r:id="rId40" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{86294129-E301-4A42-8651-A160E417DD92}"/>
+    <hyperlink ref="F62" r:id="rId41" xr:uid="{15A7C228-6152-7A4C-89CF-9C72450ECE14}"/>
+    <hyperlink ref="F65" r:id="rId42" xr:uid="{5DA68367-F0A7-9F4E-B2D0-7C2DA91ECD62}"/>
+    <hyperlink ref="F66" r:id="rId43" xr:uid="{91519883-ACEB-8147-8A8B-F7488FB58506}"/>
+    <hyperlink ref="F69" r:id="rId44" xr:uid="{B249DF89-14B7-664B-A411-43D5C6EFBEC0}"/>
+    <hyperlink ref="F71" r:id="rId45" xr:uid="{2A598C9C-9558-EA44-BA0F-D6C448C3C9C1}"/>
+    <hyperlink ref="F72" r:id="rId46" xr:uid="{6A0F1011-EAAC-464A-9EB0-5D8A2EFD938F}"/>
+    <hyperlink ref="F75" r:id="rId47" xr:uid="{F4175634-F68C-2B49-BF93-072CA316F895}"/>
+    <hyperlink ref="F22" r:id="rId48" xr:uid="{8EC0326F-49B1-8E4A-9DD3-FDE0BCC2304D}"/>
+    <hyperlink ref="F23" r:id="rId49" xr:uid="{0D51728A-47C9-0C46-9F58-5E74F480DA3F}"/>
+    <hyperlink ref="F67" r:id="rId50" xr:uid="{CA2D0495-4CC9-5A4F-9067-C3D39A04ADE5}"/>
+    <hyperlink ref="F68" r:id="rId51" xr:uid="{A8E68396-B9B5-FD49-9020-610F107379E8}"/>
+    <hyperlink ref="F70" r:id="rId52" xr:uid="{38C0DA80-A396-204A-AF96-ECC8D9E60756}"/>
+    <hyperlink ref="F38" r:id="rId53" xr:uid="{1764C078-71A1-CA4C-B085-E8B533291C82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4636,10 +4711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC75F21-A609-2048-BDDD-710CC6135C01}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4655,27 +4730,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4690,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -4713,10 +4788,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4730,10 +4805,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4747,10 +4822,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4764,10 +4839,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -4784,10 +4859,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,16 +4870,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -4821,10 +4896,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4835,13 +4910,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4852,16 +4927,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4869,16 +4944,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -4889,16 +4964,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>361</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4906,16 +4981,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4923,21 +4998,21 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4949,16 +5024,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4966,16 +5041,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4983,16 +5058,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,19 +5075,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5020,19 +5095,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,16 +5115,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5057,16 +5132,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5150,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5087,16 +5162,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,16 +5179,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,21 +5196,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5144,19 +5219,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
+        <v>343</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -5164,33 +5239,33 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1000</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5198,16 +5273,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5215,16 +5290,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5232,16 +5307,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>347</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>350</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>236</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -5249,16 +5324,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -5266,143 +5341,140 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1">
-        <v>330</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>248</v>
+      <c r="A43" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1">
-        <v>200</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>161</v>
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>160</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>200</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5410,33 +5482,36 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5444,76 +5519,75 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="1">
         <v>120</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="D54" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5521,17 +5595,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5539,99 +5613,100 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>260</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" s="4" t="s">
-        <v>259</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="D62"/>
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
       <c r="E62"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="B65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65"/>
       <c r="F65" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5639,17 +5714,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66"/>
+        <v>62</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F66" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5657,125 +5731,143 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>5</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="B69" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>4</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>5</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>5</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>210</v>
+      <c r="D78" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5790,8 +5882,8 @@
     <hyperlink ref="F33" r:id="rId8" xr:uid="{56ECF150-93EF-F847-B978-5EE27D398D02}"/>
     <hyperlink ref="F34" r:id="rId9" xr:uid="{6FDDCD46-12B3-6A4D-9E36-43FD20D54A04}"/>
     <hyperlink ref="F37" r:id="rId10" xr:uid="{355BAA2F-86AD-0644-8504-7A4B8E3C0DC7}"/>
-    <hyperlink ref="F68" r:id="rId11" xr:uid="{A4C9B4E9-1F70-F84B-8490-F8983F88F379}"/>
-    <hyperlink ref="E60" r:id="rId12" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{734827B6-518C-4E4D-9E05-81D620238D63}"/>
+    <hyperlink ref="F69" r:id="rId11" xr:uid="{A4C9B4E9-1F70-F84B-8490-F8983F88F379}"/>
+    <hyperlink ref="E61" r:id="rId12" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{734827B6-518C-4E4D-9E05-81D620238D63}"/>
     <hyperlink ref="F19" r:id="rId13" xr:uid="{3184D808-9D94-9B4A-B8B1-83DE3E119A25}"/>
     <hyperlink ref="F20" r:id="rId14" xr:uid="{4DD7F1EB-3063-6944-A115-9CA9FAD84D56}"/>
     <hyperlink ref="F21" r:id="rId15" xr:uid="{E16EABD4-DE42-AA4E-841A-6307B282C391}"/>
@@ -5801,32 +5893,33 @@
     <hyperlink ref="F28" r:id="rId19" xr:uid="{6D63D74D-422F-8749-A751-E090CAA51E53}"/>
     <hyperlink ref="F35" r:id="rId20" xr:uid="{29A793FD-6E28-A34E-B721-336D1F95A9AC}"/>
     <hyperlink ref="F36" r:id="rId21" xr:uid="{8CC8D205-85A6-A242-A35F-00292642FADF}"/>
-    <hyperlink ref="F38" r:id="rId22" xr:uid="{3742A2B9-96F0-3D4E-98EB-6C81E1FDE8DC}"/>
-    <hyperlink ref="F39" r:id="rId23" xr:uid="{3ABFCB19-CC8F-294A-8D84-D2BC24D1A4FA}"/>
-    <hyperlink ref="F40" r:id="rId24" xr:uid="{BFF36634-3E17-BB46-AE6C-778F3CFCA32F}"/>
-    <hyperlink ref="F43" r:id="rId25" xr:uid="{24A7560A-1367-4E40-A11A-E1C52CBB811D}"/>
-    <hyperlink ref="F44" r:id="rId26" xr:uid="{CC02F7FC-935D-6D4B-8718-5B8B5B271DA0}"/>
-    <hyperlink ref="F45" r:id="rId27" xr:uid="{05619425-093F-6C47-9239-DE7329D13B90}"/>
-    <hyperlink ref="F46" r:id="rId28" xr:uid="{BA8E1580-13B8-B64E-8920-A23B7C3539D9}"/>
-    <hyperlink ref="F47" r:id="rId29" xr:uid="{464E3CC1-CDF7-B446-AB58-8D3D1A0D2FF7}"/>
-    <hyperlink ref="F48" r:id="rId30" xr:uid="{44B5ACD2-B2BB-4A4B-93F1-21D794FB893B}"/>
-    <hyperlink ref="F49" r:id="rId31" xr:uid="{A44DF66B-299D-1847-9C2E-EF04CF9D823D}"/>
-    <hyperlink ref="F50" r:id="rId32" xr:uid="{E5EF4FD8-D060-8946-9F8D-AA5A71BCC094}"/>
-    <hyperlink ref="F51" r:id="rId33" xr:uid="{2131CD28-689A-A946-B2B4-E267EF57B645}"/>
-    <hyperlink ref="F52" r:id="rId34" xr:uid="{4CB910B4-662E-5D48-ABEF-A6FED1422267}"/>
-    <hyperlink ref="F53" r:id="rId35" xr:uid="{5374DE36-1C0D-A941-AF9E-1206E294BB03}"/>
-    <hyperlink ref="F56" r:id="rId36" xr:uid="{96971356-A998-5E46-9DAA-9D4560FE3DD2}"/>
-    <hyperlink ref="F57" r:id="rId37" xr:uid="{67EFE489-B1CB-0144-A285-AF702987DF97}"/>
-    <hyperlink ref="F58" r:id="rId38" xr:uid="{EF42387E-7ADC-734F-AEF3-E389A0C9C6A5}"/>
-    <hyperlink ref="F61" r:id="rId39" xr:uid="{CFB0AFC5-7094-7142-AFDA-F9B18938CA66}"/>
-    <hyperlink ref="F64" r:id="rId40" xr:uid="{19324757-9AE4-8245-A930-7776452337C2}"/>
-    <hyperlink ref="F65" r:id="rId41" xr:uid="{34C3D20A-BE96-4446-9F7E-95F5173C9EBC}"/>
-    <hyperlink ref="F66" r:id="rId42" xr:uid="{F9994AC7-0AA9-CA49-A62B-0062E81E0DB9}"/>
-    <hyperlink ref="F67" r:id="rId43" xr:uid="{3FFA008D-78A7-F544-BC42-5299CB653426}"/>
-    <hyperlink ref="F70" r:id="rId44" xr:uid="{10E337D2-29C8-9649-B477-630EF71E0D09}"/>
-    <hyperlink ref="F73" r:id="rId45" xr:uid="{C4428DAB-E98F-0940-89A8-7DB594885429}"/>
+    <hyperlink ref="F39" r:id="rId22" xr:uid="{3742A2B9-96F0-3D4E-98EB-6C81E1FDE8DC}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{3ABFCB19-CC8F-294A-8D84-D2BC24D1A4FA}"/>
+    <hyperlink ref="F41" r:id="rId24" xr:uid="{BFF36634-3E17-BB46-AE6C-778F3CFCA32F}"/>
+    <hyperlink ref="F44" r:id="rId25" xr:uid="{24A7560A-1367-4E40-A11A-E1C52CBB811D}"/>
+    <hyperlink ref="F45" r:id="rId26" xr:uid="{CC02F7FC-935D-6D4B-8718-5B8B5B271DA0}"/>
+    <hyperlink ref="F46" r:id="rId27" xr:uid="{05619425-093F-6C47-9239-DE7329D13B90}"/>
+    <hyperlink ref="F47" r:id="rId28" xr:uid="{BA8E1580-13B8-B64E-8920-A23B7C3539D9}"/>
+    <hyperlink ref="F48" r:id="rId29" xr:uid="{464E3CC1-CDF7-B446-AB58-8D3D1A0D2FF7}"/>
+    <hyperlink ref="F49" r:id="rId30" xr:uid="{44B5ACD2-B2BB-4A4B-93F1-21D794FB893B}"/>
+    <hyperlink ref="F50" r:id="rId31" xr:uid="{A44DF66B-299D-1847-9C2E-EF04CF9D823D}"/>
+    <hyperlink ref="F51" r:id="rId32" xr:uid="{E5EF4FD8-D060-8946-9F8D-AA5A71BCC094}"/>
+    <hyperlink ref="F52" r:id="rId33" xr:uid="{2131CD28-689A-A946-B2B4-E267EF57B645}"/>
+    <hyperlink ref="F53" r:id="rId34" xr:uid="{4CB910B4-662E-5D48-ABEF-A6FED1422267}"/>
+    <hyperlink ref="F54" r:id="rId35" xr:uid="{5374DE36-1C0D-A941-AF9E-1206E294BB03}"/>
+    <hyperlink ref="F57" r:id="rId36" xr:uid="{96971356-A998-5E46-9DAA-9D4560FE3DD2}"/>
+    <hyperlink ref="F58" r:id="rId37" xr:uid="{67EFE489-B1CB-0144-A285-AF702987DF97}"/>
+    <hyperlink ref="F59" r:id="rId38" xr:uid="{EF42387E-7ADC-734F-AEF3-E389A0C9C6A5}"/>
+    <hyperlink ref="F62" r:id="rId39" xr:uid="{CFB0AFC5-7094-7142-AFDA-F9B18938CA66}"/>
+    <hyperlink ref="F65" r:id="rId40" xr:uid="{19324757-9AE4-8245-A930-7776452337C2}"/>
+    <hyperlink ref="F66" r:id="rId41" xr:uid="{34C3D20A-BE96-4446-9F7E-95F5173C9EBC}"/>
+    <hyperlink ref="F67" r:id="rId42" xr:uid="{F9994AC7-0AA9-CA49-A62B-0062E81E0DB9}"/>
+    <hyperlink ref="F68" r:id="rId43" xr:uid="{3FFA008D-78A7-F544-BC42-5299CB653426}"/>
+    <hyperlink ref="F71" r:id="rId44" xr:uid="{10E337D2-29C8-9649-B477-630EF71E0D09}"/>
+    <hyperlink ref="F74" r:id="rId45" xr:uid="{C4428DAB-E98F-0940-89A8-7DB594885429}"/>
     <hyperlink ref="F14" r:id="rId46" xr:uid="{6178BEFC-57C4-6C4B-8ABD-B7924740CF56}"/>
     <hyperlink ref="F16" r:id="rId47" xr:uid="{C15DA262-5801-504F-A804-E2702C3FA4EF}"/>
+    <hyperlink ref="F38" r:id="rId48" xr:uid="{CFAA69C7-3930-4540-8BE9-5FD64E847E86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5834,10 +5927,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FDEFEA-849D-5B4C-9A76-0C1C74BD1400}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5853,27 +5946,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5888,13 +5981,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -5911,10 +6004,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5928,10 +6021,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5945,10 +6038,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,10 +6055,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -5982,10 +6075,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5993,16 +6086,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -6019,10 +6112,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6033,13 +6126,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -6050,16 +6143,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6067,16 +6160,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -6087,16 +6180,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6104,16 +6197,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6121,21 +6214,21 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6147,16 +6240,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6164,16 +6257,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6181,16 +6274,16 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6198,19 +6291,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6218,19 +6311,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6238,16 +6331,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6255,16 +6348,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6273,7 +6366,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6285,16 +6378,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6302,16 +6395,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6319,21 +6412,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6345,16 +6438,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
+        <v>343</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6362,33 +6455,33 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1000</v>
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6396,16 +6489,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6413,16 +6506,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6430,16 +6523,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>347</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>350</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6447,16 +6540,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6464,143 +6557,140 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>357</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1">
-        <v>330</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>333</v>
+      <c r="A43" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1">
-        <v>200</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>161</v>
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>160</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>200</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6608,33 +6698,36 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6642,76 +6735,75 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="1">
         <v>120</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" s="4" t="s">
-        <v>343</v>
-      </c>
+      <c r="D54" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6719,17 +6811,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6737,99 +6829,100 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59" s="4" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>17</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>260</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="D62"/>
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
       <c r="E62"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="B65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65"/>
       <c r="F65" s="4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -6837,17 +6930,16 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66"/>
+        <v>62</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F66" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6855,125 +6947,143 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>5</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="B69" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>4</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>5</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>5</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>210</v>
+      <c r="D78" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6988,8 +7098,8 @@
     <hyperlink ref="F33" r:id="rId8" xr:uid="{7889BEAF-C50B-1D4B-BB52-48F51081ECBF}"/>
     <hyperlink ref="F34" r:id="rId9" xr:uid="{3A0FD0DB-CCC0-1544-B75B-C86AC010ABAE}"/>
     <hyperlink ref="F37" r:id="rId10" xr:uid="{6AA490E9-9462-1040-9C82-BAF7DDF60B65}"/>
-    <hyperlink ref="F68" r:id="rId11" xr:uid="{87465506-CA09-6C4D-A47F-67561EFFC91D}"/>
-    <hyperlink ref="E60" r:id="rId12" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{74649215-3B8A-8E4A-90F5-7EA859DAE9C7}"/>
+    <hyperlink ref="F69" r:id="rId11" xr:uid="{87465506-CA09-6C4D-A47F-67561EFFC91D}"/>
+    <hyperlink ref="E61" r:id="rId12" display="https://www.amazon.ca/dp/B0BXZXZX74" xr:uid="{74649215-3B8A-8E4A-90F5-7EA859DAE9C7}"/>
     <hyperlink ref="F19" r:id="rId13" xr:uid="{7F1925CE-A878-B84D-8B9D-2EDF84588C4F}"/>
     <hyperlink ref="F20" r:id="rId14" xr:uid="{8C11ADA1-B7C7-DE4B-96DA-AF3636E55AC9}"/>
     <hyperlink ref="F21" r:id="rId15" xr:uid="{DC199A2A-E186-174F-AD02-B47908B03B08}"/>
@@ -6999,32 +7109,33 @@
     <hyperlink ref="F28" r:id="rId19" xr:uid="{DF52B6F3-38B4-6D45-93AC-D4AC65830222}"/>
     <hyperlink ref="F35" r:id="rId20" xr:uid="{BE1E278C-5DDA-3847-8D43-6673CB69FCCC}"/>
     <hyperlink ref="F36" r:id="rId21" xr:uid="{3618E749-1D61-3C40-A126-B864C0B6BC51}"/>
-    <hyperlink ref="F38" r:id="rId22" xr:uid="{DB9D67F2-8232-BE47-9F43-2A9D45BC3C8E}"/>
-    <hyperlink ref="F39" r:id="rId23" xr:uid="{293CF2A3-3599-1349-B518-084ACEBC59C0}"/>
-    <hyperlink ref="F40" r:id="rId24" xr:uid="{9DD849DA-EAD4-9640-8A3C-0FAEDCD69F9C}"/>
-    <hyperlink ref="F43" r:id="rId25" xr:uid="{22990BAF-A6C2-A948-A2B3-62E3D17AA7B4}"/>
-    <hyperlink ref="F44" r:id="rId26" xr:uid="{B508E058-0494-F94B-B7C9-802BC013C6BC}"/>
-    <hyperlink ref="F45" r:id="rId27" xr:uid="{02E6822F-F243-5146-B48C-1777B41C6891}"/>
-    <hyperlink ref="F46" r:id="rId28" xr:uid="{C0355251-0EE2-E643-9873-841E99198B1E}"/>
-    <hyperlink ref="F47" r:id="rId29" xr:uid="{CEEC3131-3390-E648-87C5-B30E11D03501}"/>
-    <hyperlink ref="F48" r:id="rId30" xr:uid="{0C3E8352-3BE0-744B-96D1-CE3B14DFE60A}"/>
-    <hyperlink ref="F49" r:id="rId31" xr:uid="{10914DED-E7E3-9442-9C99-46FCCDC27E39}"/>
-    <hyperlink ref="F50" r:id="rId32" xr:uid="{8CFA513A-BBF6-6C40-9261-A736621524DD}"/>
-    <hyperlink ref="F51" r:id="rId33" xr:uid="{226F70EF-38DF-A149-B7BA-3F0F2E80A44A}"/>
-    <hyperlink ref="F52" r:id="rId34" xr:uid="{9CB3B2CA-71E8-2D4B-B532-91DDBBA1451E}"/>
-    <hyperlink ref="F53" r:id="rId35" xr:uid="{A5B8ABB3-10F4-3841-BC8D-880C8E395EF2}"/>
-    <hyperlink ref="F56" r:id="rId36" xr:uid="{90495942-F57A-224F-AD6C-00C5A540D19A}"/>
-    <hyperlink ref="F57" r:id="rId37" xr:uid="{8FA9A0C6-C49B-C140-8584-D80A81217700}"/>
-    <hyperlink ref="F58" r:id="rId38" xr:uid="{6B9C49BF-62C7-9745-90F2-5C2917EC2105}"/>
-    <hyperlink ref="F61" r:id="rId39" xr:uid="{9ABF930B-3068-E24A-9273-1091A8691EDD}"/>
-    <hyperlink ref="F64" r:id="rId40" xr:uid="{30C58EF6-F67D-E049-A826-9582D83027D1}"/>
-    <hyperlink ref="F65" r:id="rId41" xr:uid="{1B0B227D-633B-6F40-8C9E-1CB8E3BD05DB}"/>
-    <hyperlink ref="F66" r:id="rId42" xr:uid="{5994DA6C-DB00-C349-94CD-9DA7E5A02885}"/>
-    <hyperlink ref="F67" r:id="rId43" xr:uid="{8D9F7B07-506D-674E-86B3-1059BE7C4FC7}"/>
-    <hyperlink ref="F70" r:id="rId44" xr:uid="{51D0AC0F-5AEF-0F4A-BEA4-9E6FA88009F0}"/>
-    <hyperlink ref="F73" r:id="rId45" xr:uid="{A530C715-6C2C-1A49-998D-985256ECAA63}"/>
+    <hyperlink ref="F39" r:id="rId22" xr:uid="{DB9D67F2-8232-BE47-9F43-2A9D45BC3C8E}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{293CF2A3-3599-1349-B518-084ACEBC59C0}"/>
+    <hyperlink ref="F41" r:id="rId24" xr:uid="{9DD849DA-EAD4-9640-8A3C-0FAEDCD69F9C}"/>
+    <hyperlink ref="F44" r:id="rId25" xr:uid="{22990BAF-A6C2-A948-A2B3-62E3D17AA7B4}"/>
+    <hyperlink ref="F45" r:id="rId26" xr:uid="{B508E058-0494-F94B-B7C9-802BC013C6BC}"/>
+    <hyperlink ref="F46" r:id="rId27" xr:uid="{02E6822F-F243-5146-B48C-1777B41C6891}"/>
+    <hyperlink ref="F47" r:id="rId28" xr:uid="{C0355251-0EE2-E643-9873-841E99198B1E}"/>
+    <hyperlink ref="F48" r:id="rId29" xr:uid="{CEEC3131-3390-E648-87C5-B30E11D03501}"/>
+    <hyperlink ref="F49" r:id="rId30" xr:uid="{0C3E8352-3BE0-744B-96D1-CE3B14DFE60A}"/>
+    <hyperlink ref="F50" r:id="rId31" xr:uid="{10914DED-E7E3-9442-9C99-46FCCDC27E39}"/>
+    <hyperlink ref="F51" r:id="rId32" xr:uid="{8CFA513A-BBF6-6C40-9261-A736621524DD}"/>
+    <hyperlink ref="F52" r:id="rId33" xr:uid="{226F70EF-38DF-A149-B7BA-3F0F2E80A44A}"/>
+    <hyperlink ref="F53" r:id="rId34" xr:uid="{9CB3B2CA-71E8-2D4B-B532-91DDBBA1451E}"/>
+    <hyperlink ref="F54" r:id="rId35" xr:uid="{A5B8ABB3-10F4-3841-BC8D-880C8E395EF2}"/>
+    <hyperlink ref="F57" r:id="rId36" xr:uid="{90495942-F57A-224F-AD6C-00C5A540D19A}"/>
+    <hyperlink ref="F58" r:id="rId37" xr:uid="{8FA9A0C6-C49B-C140-8584-D80A81217700}"/>
+    <hyperlink ref="F59" r:id="rId38" xr:uid="{6B9C49BF-62C7-9745-90F2-5C2917EC2105}"/>
+    <hyperlink ref="F62" r:id="rId39" xr:uid="{9ABF930B-3068-E24A-9273-1091A8691EDD}"/>
+    <hyperlink ref="F65" r:id="rId40" xr:uid="{30C58EF6-F67D-E049-A826-9582D83027D1}"/>
+    <hyperlink ref="F66" r:id="rId41" xr:uid="{1B0B227D-633B-6F40-8C9E-1CB8E3BD05DB}"/>
+    <hyperlink ref="F67" r:id="rId42" xr:uid="{5994DA6C-DB00-C349-94CD-9DA7E5A02885}"/>
+    <hyperlink ref="F68" r:id="rId43" xr:uid="{8D9F7B07-506D-674E-86B3-1059BE7C4FC7}"/>
+    <hyperlink ref="F71" r:id="rId44" xr:uid="{51D0AC0F-5AEF-0F4A-BEA4-9E6FA88009F0}"/>
+    <hyperlink ref="F74" r:id="rId45" xr:uid="{A530C715-6C2C-1A49-998D-985256ECAA63}"/>
     <hyperlink ref="F14" r:id="rId46" xr:uid="{0B8894E2-5A4B-D44C-9A65-1B5F55DD7354}"/>
     <hyperlink ref="F16" r:id="rId47" xr:uid="{FD381F16-597B-3F43-AE90-E08FA703050E}"/>
+    <hyperlink ref="F38" r:id="rId48" xr:uid="{AF038AC8-7DBD-574A-9F48-5CDF5BEA49A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/ELF-II/AVI ELF II Final BOM.xlsx
+++ b/notes/ELF-II/AVI ELF II Final BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/ELF-II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC7DEE-7BA0-594F-96A5-1BED7A3A0BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC558B5-0ACA-9D44-9503-FE59DA7E70FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="600" windowWidth="42520" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="600" windowWidth="42520" windowHeight="22300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DigiKey.ca" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="366">
   <si>
     <t>A1</t>
   </si>
@@ -286,9 +286,6 @@
     <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD4049UBE?qs=D5pVkbrsqqLvQoWdk2gTTw%3D%3D</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN74HC00N/277209</t>
-  </si>
-  <si>
     <t>SRAM 256K-Bit (32Kx8)</t>
   </si>
   <si>
@@ -664,9 +661,6 @@
     <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD74HC173E?qs=j01uVdFEFjELTUIKncHz%252Bg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/SN74HC00AN?qs=6ZVwTuetbD7YqMbSpl34ug%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/CD74HCT74E?qs=ZA235jQDfboKM%252BOEvlrfDA%3D%3D</t>
   </si>
   <si>
@@ -802,9 +796,6 @@
     <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4049UBE/67301</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/SN74HC00N/277209</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/texas-instruments/CD74HCT74E/38762</t>
   </si>
   <si>
@@ -946,9 +937,6 @@
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD4049UBE?qs=D5pVkbrsqqLvQoWdk2gTTw%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/SN74HC00AN?qs=6ZVwTuetbD7YqMbSpl34ug%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Texas-Instruments/CD74HCT74E?qs=ZA235jQDfboKM%252BOEvlrfDA%3D%3D</t>
   </si>
   <si>
@@ -1108,9 +1096,6 @@
     <t>Jameco Electronics: https://www.jameco.com/z/74C922-Major-Brands-IC-74C922-16-20-Key-Encoder-DIP-18-pin_44564.html</t>
   </si>
   <si>
-    <t>74HC00</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/kemet/C320C103K3G5TA/6656406</t>
   </si>
   <si>
@@ -1118,6 +1103,24 @@
   </si>
   <si>
     <t>1000uf Electroytic</t>
+  </si>
+  <si>
+    <t>* Note: This is an LS device and the clock may not operate correctly if an HC or other type of TTL device is used.</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN74LS00N/277272</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/SN74LS00N/277272</t>
+  </si>
+  <si>
+    <t>* Note: This is an HC device and the clock may not operate correctly if an LS or other type of TTL device is used.</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/SN74LS00N?qs=spW5eSrOWB6G5wECF%252BEZFA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/SN74LS00N?qs=spW5eSrOWB6G5wECF%252BEZFA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2118,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2166,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -2189,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>74</v>
@@ -2206,7 +2209,7 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>75</v>
@@ -2223,7 +2226,7 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>76</v>
@@ -2243,7 +2246,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -2260,7 +2263,7 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>79</v>
@@ -2271,16 +2274,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -2297,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>84</v>
@@ -2311,13 +2314,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -2334,7 +2337,7 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>85</v>
@@ -2354,7 +2357,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -2371,10 +2374,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>87</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2388,10 +2394,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2405,10 +2414,10 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2416,7 +2425,7 @@
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2434,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2451,10 +2460,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2468,10 +2477,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2479,19 +2488,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2499,19 +2508,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2525,10 +2534,10 @@
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2536,16 +2545,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2555,7 +2564,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2573,10 +2582,10 @@
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2584,16 +2593,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2601,21 +2610,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2627,16 +2636,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,13 +2656,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2661,16 +2670,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,13 +2690,13 @@
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2698,13 +2707,13 @@
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2712,17 +2721,17 @@
         <v>1</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2733,13 +2742,13 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2750,13 +2759,13 @@
         <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2767,18 +2776,18 @@
         <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2792,10 +2801,10 @@
         <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2809,10 +2818,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2826,10 +2835,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2843,10 +2852,10 @@
         <v>200</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2860,10 +2869,10 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2871,16 +2880,16 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2888,19 +2897,19 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2914,10 +2923,10 @@
         <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2931,10 +2940,10 @@
         <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2948,10 +2957,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2959,21 +2968,21 @@
         <v>2</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C54" s="1">
         <v>120</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2994,7 +3003,7 @@
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3012,7 +3021,7 @@
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3030,7 +3039,7 @@
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3048,7 +3057,7 @@
       </c>
       <c r="E60"/>
       <c r="F60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3056,16 +3065,16 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
         <v>117</v>
       </c>
-      <c r="D61" t="s">
-        <v>118</v>
-      </c>
       <c r="E61" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F61" s="4"/>
     </row>
@@ -3080,11 +3089,11 @@
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3095,7 +3104,7 @@
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3109,14 +3118,14 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3130,10 +3139,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3147,11 +3156,11 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3165,11 +3174,11 @@
         <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3177,16 +3186,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3194,16 +3203,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3211,16 +3220,16 @@
         <v>4</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -3228,21 +3237,21 @@
         <v>5</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="D72" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3254,18 +3263,18 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="F75" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3277,10 +3286,10 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3294,7 +3303,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3366,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3391,7 +3400,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="21"/>
@@ -3407,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>8</v>
@@ -3430,11 +3439,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3448,11 +3457,11 @@
         <v>4016</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3466,11 +3475,11 @@
         <v>4023</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3487,7 +3496,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>8</v>
@@ -3504,11 +3513,11 @@
         <v>4050</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3516,16 +3525,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>8</v>
@@ -3542,11 +3551,11 @@
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3557,13 +3566,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -3580,11 +3589,11 @@
         <v>4049</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3601,7 +3610,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>8</v>
@@ -3618,11 +3627,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>360</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3636,11 +3647,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>363</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,11 +3667,11 @@
         <v>4013</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3671,7 +3684,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -3690,11 +3703,11 @@
         <v>30</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3708,11 +3721,11 @@
         <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3726,11 +3739,11 @@
         <v>34</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,19 +3751,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,19 +3771,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="E23" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3784,11 +3797,11 @@
         <v>3.58</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3796,17 +3809,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3819,7 +3832,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
@@ -3838,11 +3851,11 @@
         <v>39</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3850,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" s="12"/>
     </row>
@@ -3868,16 +3881,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="F30" s="12"/>
     </row>
@@ -3891,7 +3904,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -3904,17 +3917,17 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3925,14 +3938,14 @@
         <v>22</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,17 +3953,17 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3961,14 +3974,14 @@
         <v>23</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3979,14 +3992,14 @@
         <v>24</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3994,17 +4007,17 @@
         <v>1</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4015,14 +4028,14 @@
         <v>25</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4033,14 +4046,14 @@
         <v>26</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4051,14 +4064,14 @@
         <v>27</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4071,7 +4084,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="12"/>
@@ -4090,11 +4103,11 @@
         <v>330</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,11 +4121,11 @@
         <v>42</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4126,11 +4139,11 @@
         <v>44</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4144,11 +4157,11 @@
         <v>200</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4162,11 +4175,11 @@
         <v>47</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4174,17 +4187,17 @@
         <v>3</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4192,19 +4205,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,11 +4231,11 @@
         <v>42</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4236,11 +4249,11 @@
         <v>52</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4254,11 +4267,11 @@
         <v>52</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4266,17 +4279,17 @@
         <v>2</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C54" s="12">
         <v>120</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4289,7 +4302,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -4312,7 +4325,7 @@
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4330,7 +4343,7 @@
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4348,7 +4361,7 @@
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4366,7 +4379,7 @@
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4374,16 +4387,16 @@
         <v>17</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="E61" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F61" s="25"/>
     </row>
@@ -4398,11 +4411,11 @@
         <v>35</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4415,7 +4428,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -4431,14 +4444,14 @@
         <v>37</v>
       </c>
       <c r="C65" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4452,11 +4465,11 @@
         <v>62</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4470,11 +4483,11 @@
         <v>64</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4488,11 +4501,11 @@
         <v>63</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4500,17 +4513,17 @@
         <v>5</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4518,17 +4531,17 @@
         <v>5</v>
       </c>
       <c r="B70" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>200</v>
-      </c>
       <c r="D70" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,17 +4549,17 @@
         <v>4</v>
       </c>
       <c r="B71" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="D71" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -4554,17 +4567,17 @@
         <v>5</v>
       </c>
       <c r="B72" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>191</v>
-      </c>
       <c r="D72" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4577,7 +4590,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -4590,15 +4603,15 @@
         <v>8</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4611,7 +4624,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -4624,11 +4637,11 @@
         <v>2</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -4644,7 +4657,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -4713,8 +4726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC75F21-A609-2048-BDDD-710CC6135C01}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,7 +4763,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4765,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -4788,10 +4801,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4805,10 +4818,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4822,10 +4835,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4842,7 +4855,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -4859,7 +4872,7 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>78</v>
@@ -4870,16 +4883,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -4896,10 +4909,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4910,13 +4923,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4933,7 +4946,7 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>86</v>
@@ -4953,7 +4966,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -4967,13 +4980,16 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>361</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>213</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4987,10 +5003,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5004,15 +5023,15 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5030,10 +5049,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5047,10 +5066,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5064,10 +5083,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,19 +5094,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5095,19 +5114,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,10 +5140,10 @@
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,16 +5151,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5150,7 +5169,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5168,10 +5187,10 @@
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,16 +5198,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,21 +5215,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5222,16 +5241,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -5242,13 +5261,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -5256,16 +5275,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,13 +5295,13 @@
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,13 +5312,13 @@
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5307,16 +5326,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -5327,13 +5346,13 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,13 +5363,13 @@
         <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -5361,18 +5380,18 @@
         <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -5386,10 +5405,10 @@
         <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -5403,10 +5422,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -5420,10 +5439,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -5437,10 +5456,10 @@
         <v>200</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5454,10 +5473,10 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5465,16 +5484,16 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5482,19 +5501,19 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5508,10 +5527,10 @@
         <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -5525,10 +5544,10 @@
         <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5542,10 +5561,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -5553,21 +5572,21 @@
         <v>2</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C54" s="1">
         <v>120</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5587,7 +5606,7 @@
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5605,7 +5624,7 @@
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5623,7 +5642,7 @@
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5647,16 +5666,16 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
         <v>117</v>
       </c>
-      <c r="D61" t="s">
-        <v>118</v>
-      </c>
       <c r="E61" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F61"/>
     </row>
@@ -5671,11 +5690,11 @@
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5686,7 +5705,7 @@
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5699,14 +5718,14 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5720,10 +5739,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5737,11 +5756,11 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -5755,11 +5774,11 @@
         <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5767,16 +5786,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D69" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -5784,16 +5803,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -5801,21 +5820,21 @@
         <v>5</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5827,18 +5846,18 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -5850,10 +5869,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -5867,7 +5886,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5929,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FDEFEA-849D-5B4C-9A76-0C1C74BD1400}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5966,7 +5985,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5981,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -6004,10 +6023,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6021,10 +6040,10 @@
         <v>4016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6038,10 +6057,10 @@
         <v>4023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -6058,7 +6077,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -6075,10 +6094,10 @@
         <v>4050</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6086,16 +6105,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -6112,10 +6131,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6126,13 +6145,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -6149,10 +6168,10 @@
         <v>4049</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6169,7 +6188,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -6186,10 +6205,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -6203,10 +6225,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6220,15 +6245,15 @@
         <v>4013</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6246,10 +6271,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6263,10 +6288,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6280,10 +6305,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6291,19 +6316,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6311,19 +6336,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6337,10 +6362,10 @@
         <v>3.58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6348,16 +6373,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6366,7 +6391,7 @@
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6384,10 +6409,10 @@
         <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6395,16 +6420,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6412,21 +6437,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6438,16 +6463,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6458,13 +6483,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6472,16 +6497,16 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6492,13 +6517,13 @@
         <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6509,13 +6534,13 @@
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6523,16 +6548,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6543,13 +6568,13 @@
         <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6560,13 +6585,13 @@
         <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6577,18 +6602,18 @@
         <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6602,10 +6627,10 @@
         <v>330</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6619,10 +6644,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6636,10 +6661,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6653,10 +6678,10 @@
         <v>200</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6670,10 +6695,10 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6681,16 +6706,16 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6698,19 +6723,19 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6724,10 +6749,10 @@
         <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6741,10 +6766,10 @@
         <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6758,10 +6783,10 @@
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -6769,21 +6794,21 @@
         <v>2</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C54" s="1">
         <v>120</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6803,7 +6828,7 @@
       </c>
       <c r="E57"/>
       <c r="F57" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6821,7 +6846,7 @@
       </c>
       <c r="E58"/>
       <c r="F58" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6839,7 +6864,7 @@
       </c>
       <c r="E59"/>
       <c r="F59" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -6863,16 +6888,16 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
         <v>117</v>
       </c>
-      <c r="D61" t="s">
-        <v>118</v>
-      </c>
       <c r="E61" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F61"/>
     </row>
@@ -6887,11 +6912,11 @@
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -6902,7 +6927,7 @@
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6915,14 +6940,14 @@
         <v>37</v>
       </c>
       <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -6936,10 +6961,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6953,11 +6978,11 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -6971,11 +6996,11 @@
         <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -6983,16 +7008,16 @@
         <v>5</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D69" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -7000,16 +7025,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -7017,21 +7042,21 @@
         <v>5</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7043,18 +7068,18 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -7066,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -7083,7 +7108,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/notes/ELF-II/AVI ELF II Final BOM.xlsx
+++ b/notes/ELF-II/AVI ELF II Final BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwasson/Development/avi-elf-ii/notes/ELF-II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC558B5-0ACA-9D44-9503-FE59DA7E70FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F693C7CC-8A97-6F4E-954F-A9DFC5FDC27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="600" windowWidth="42520" windowHeight="22300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27220" yWindow="2020" windowWidth="42520" windowHeight="22300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DigiKey.ca" sheetId="2" r:id="rId1"/>
@@ -5948,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FDEFEA-849D-5B4C-9A76-0C1C74BD1400}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>187</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>339</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>208</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>207</v>
